--- a/ebs_with_tracing/forms/app/scdsc_investigation.xlsx
+++ b/ebs_with_tracing/forms/app/scdsc_investigation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -441,9 +441,6 @@
     <t>escalate_to_county</t>
   </si>
   <si>
-    <t>Escalate response to county level</t>
-  </si>
-  <si>
     <t>deploy_rrt</t>
   </si>
   <si>
@@ -594,34 +591,7 @@
     <t>constraint_message::sh</t>
   </si>
   <si>
-    <t>Hongu</t>
-  </si>
-  <si>
-    <t>Kwete</t>
-  </si>
-  <si>
-    <t>Kupindwa nechando</t>
-  </si>
-  <si>
-    <t>Goshorwa</t>
-  </si>
-  <si>
-    <t>Kuzarirwa</t>
-  </si>
-  <si>
-    <t>Manyoka</t>
-  </si>
-  <si>
-    <t>Zvimwe</t>
-  </si>
-  <si>
-    <t>very low risk</t>
-  </si>
-  <si>
-    <t>Escalate response to country level</t>
-  </si>
-  <si>
-    <t>Enahnced surveillance</t>
+    <t>Escalate response to provincial level</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1195,8 @@
   </sheetPr>
   <dimension ref="A1:AB850"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
@@ -1260,22 +1230,22 @@
         <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>7</v>
@@ -1423,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1462,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1473,7 +1443,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>10</v>
@@ -1511,7 +1481,7 @@
         <v>109</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1552,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1591,7 +1561,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1630,7 +1600,7 @@
         <v>111</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1671,13 +1641,13 @@
         <v>114</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -1716,7 +1686,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1757,7 +1727,7 @@
         <v>116</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1798,7 +1768,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1839,7 +1809,7 @@
         <v>117</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1880,7 +1850,7 @@
         <v>118</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1921,7 +1891,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1962,7 +1932,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -2003,7 +1973,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2044,7 +2014,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2076,16 +2046,16 @@
     </row>
     <row r="21" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -2117,16 +2087,16 @@
     </row>
     <row r="22" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2227,7 +2197,7 @@
         <v>87</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>88</v>
@@ -2249,7 +2219,7 @@
         <v>99</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
@@ -2268,7 +2238,7 @@
         <v>91</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>92</v>
@@ -2293,7 +2263,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>79</v>
@@ -2315,7 +2285,7 @@
         <v>101</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>79</v>
@@ -2337,7 +2307,7 @@
         <v>103</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>79</v>
@@ -2359,7 +2329,7 @@
         <v>102</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>79</v>
@@ -2375,12 +2345,12 @@
         <v>14</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="34"/>
       <c r="L32" s="13"/>
       <c r="M32" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -2396,10 +2366,10 @@
         <v>108</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>79</v>
@@ -2421,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K34" s="28" t="s">
         <v>92</v>
@@ -2443,7 +2413,7 @@
         <v>95</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L35" s="13" t="s">
         <v>98</v>
@@ -2462,10 +2432,10 @@
         <v>97</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>79</v>
@@ -8203,22 +8173,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1001"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="19" customWidth="1"/>
-    <col min="3" max="4" width="38.28515625" style="19" customWidth="1"/>
-    <col min="5" max="14" width="14.42578125" style="19" customWidth="1"/>
-    <col min="15" max="16384" width="17.28515625" style="19"/>
+    <col min="3" max="3" width="38.28515625" style="19" customWidth="1"/>
+    <col min="4" max="13" width="14.42578125" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="17.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8229,15 +8199,12 @@
         <v>50</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
@@ -8247,9 +8214,7 @@
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>187</v>
-      </c>
+      <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -8272,9 +8237,8 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
@@ -8284,9 +8248,7 @@
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>188</v>
-      </c>
+      <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -8309,9 +8271,8 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>69</v>
       </c>
@@ -8321,9 +8282,7 @@
       <c r="C4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>189</v>
-      </c>
+      <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8346,9 +8305,8 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>69</v>
       </c>
@@ -8358,9 +8316,7 @@
       <c r="C5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>190</v>
-      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -8383,9 +8339,8 @@
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -8395,9 +8350,7 @@
       <c r="C6" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>191</v>
-      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -8420,9 +8373,8 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>69</v>
       </c>
@@ -8432,9 +8384,7 @@
       <c r="C7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>192</v>
-      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -8457,9 +8407,8 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -8469,9 +8418,7 @@
       <c r="C8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>193</v>
-      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -8494,11 +8441,10 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-    </row>
-    <row r="9" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>130</v>
@@ -8506,9 +8452,7 @@
       <c r="C9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>120</v>
-      </c>
+      <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -8531,11 +8475,10 @@
       <c r="X9" s="32"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-    </row>
-    <row r="10" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>131</v>
@@ -8543,9 +8486,7 @@
       <c r="C10" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>121</v>
-      </c>
+      <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -8568,11 +8509,10 @@
       <c r="X10" s="32"/>
       <c r="Y10" s="32"/>
       <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-    </row>
-    <row r="11" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>132</v>
@@ -8580,9 +8520,7 @@
       <c r="C11" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>122</v>
-      </c>
+      <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -8605,11 +8543,10 @@
       <c r="X11" s="32"/>
       <c r="Y11" s="32"/>
       <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-    </row>
-    <row r="12" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>133</v>
@@ -8617,9 +8554,7 @@
       <c r="C12" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>123</v>
-      </c>
+      <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -8642,11 +8577,10 @@
       <c r="X12" s="32"/>
       <c r="Y12" s="32"/>
       <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-    </row>
-    <row r="13" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>134</v>
@@ -8654,9 +8588,7 @@
       <c r="C13" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>194</v>
-      </c>
+      <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -8679,21 +8611,18 @@
       <c r="X13" s="32"/>
       <c r="Y13" s="32"/>
       <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-    </row>
-    <row r="14" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>195</v>
-      </c>
+      <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -8716,21 +8645,18 @@
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-    </row>
-    <row r="15" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>125</v>
-      </c>
+      <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -8753,21 +8679,18 @@
       <c r="X15" s="32"/>
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-    </row>
-    <row r="16" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>126</v>
-      </c>
+      <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -8790,21 +8713,18 @@
       <c r="X16" s="32"/>
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-    </row>
-    <row r="17" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>196</v>
-      </c>
+      <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -8827,73 +8747,66 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-    </row>
-    <row r="18" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:26" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
     </row>
-    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
     </row>
-    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
     </row>
-    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
     </row>
-    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
     </row>
     <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
